--- a/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45119</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45119</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45120</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45120</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45119</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45119</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45120</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45120</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45119</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45119</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45120</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45120</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45119</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45119</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45120</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45120</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45119</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45119</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45120</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45120</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45119</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45119</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45120</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45120</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45119</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45119</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45120</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45120</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45119</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45119</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45120</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45120</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45119</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45119</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45120</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45120</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45119</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45119</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45120</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45120</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45119</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45119</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45120</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45120</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45119</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45119</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45120</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45120</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45119</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45119</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45120</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45120</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Logging_BORAS/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45119</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45119</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45119</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45120</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45120</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45120</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45120</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45120</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45126</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45126</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
